--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="18780" windowHeight="8325"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Procesos" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
-  <si>
-    <t>Gestión de Obras Civiles</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -30,9 +27,6 @@
     <t>Seguimiento y Entrega de la Obra</t>
   </si>
   <si>
-    <t>Gestión de Abastecimientos</t>
-  </si>
-  <si>
     <t>Recopilación de Requerimientos Institucionales</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Compra de Bienes</t>
   </si>
   <si>
-    <t>Gestión de Recursos Humanos</t>
-  </si>
-  <si>
     <t>Solicitud de Fondos de Viaje</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>Seguimiento de Personal</t>
   </si>
   <si>
-    <t>Gestión de Control de Pagos</t>
-  </si>
-  <si>
     <t>Arqueo de Caja</t>
   </si>
   <si>
@@ -124,13 +112,43 @@
   </si>
   <si>
     <t>Despido/Renuncia de Personal</t>
+  </si>
+  <si>
+    <t>Evaluación y Entrega de Fondos</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>susan</t>
+  </si>
+  <si>
+    <t>MP1. Gestión de Obras Civiles</t>
+  </si>
+  <si>
+    <t>MP2. Gestión de Abastecimientos</t>
+  </si>
+  <si>
+    <t>MP3. Gestión de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>MP4. Gestión de Control de Pagos</t>
+  </si>
+  <si>
+    <t>que falta hacer:</t>
+  </si>
+  <si>
+    <t>Pago Presupuesto de Construcción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,16 +191,86 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -364,42 +452,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
@@ -443,9 +645,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,12 +669,114 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -771,12 +1072,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K33"/>
+  <dimension ref="C3:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,597 +1085,731 @@
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="11" width="13.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="25"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="30">
+        <v>2.6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="25"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="29">
+        <v>3.1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="24">
+        <v>3.7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="26"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="30" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C33" s="59">
+        <v>4.5</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="3:12" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="34"/>
+      <c r="E35" s="33">
+        <f>COUNTIF(E6:E34,"x")</f>
+        <v>5</v>
+      </c>
+      <c r="F35" s="33">
+        <f>COUNTIF(F6:F34,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="G35" s="33">
+        <f>COUNTIF(G6:G34,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="33">
+        <f>COUNTIF(H6:H34,"x")</f>
+        <v>13</v>
+      </c>
+      <c r="I35" s="33">
+        <f>COUNTIF(I6:I34,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="33">
+        <f>COUNTIF(J6:J34,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="K35" s="33">
+        <f>COUNTIF(K6:K34,"x")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="34"/>
+      <c r="D36" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="E36" s="40">
+        <f>IF(E35&gt;0,E35,"")</f>
+        <v>5</v>
+      </c>
+      <c r="F36" s="41">
+        <f t="shared" ref="F36:K36" si="0">IF(F35&gt;0,F35,"")</f>
+        <v>3</v>
+      </c>
+      <c r="G36" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I36" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J36" s="41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K36" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L36" s="43">
+        <f>SUM(E36:K36)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="36">
+        <f>IF(E36="",0,E36/$L$36)</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="F37" s="37">
+        <f t="shared" ref="F37:K37" si="1">IF(F36="",0,F36/$L$36)</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="G37" s="37">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="H37" s="37">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="37">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="J37" s="37">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="K37" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="39">
+        <f>SUM(E37:K37)</f>
         <v>1</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="33">
-        <v>1.2</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="35"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="33">
-        <v>2.1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="33">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="33">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="33">
-        <v>2.4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="34">
-        <v>2.5</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="35"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="33">
-        <v>3.1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="33">
-        <v>3.2</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="33">
-        <v>3.3</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="33">
-        <v>3.4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="37">
-        <v>3.6</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="38"/>
-    </row>
-    <row r="25" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="34">
-        <v>3.7</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="36"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="33">
-        <v>4.3</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="33">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="34">
-        <v>4.5</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E3:J3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1383,12 +1818,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -717,6 +717,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,12 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,9 +1075,9 @@
   <dimension ref="C3:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,34 +1091,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="54"/>
+      <c r="G4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="47" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1129,17 +1129,17 @@
       <c r="F5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="46"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1223,10 +1223,10 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1253,11 +1253,9 @@
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="14" t="s">
@@ -1276,11 +1274,9 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="14" t="s">
@@ -1391,10 +1387,10 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1560,10 +1556,10 @@
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
         <v>28</v>
@@ -1661,7 +1657,7 @@
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="59">
+      <c r="C33" s="45">
         <v>4.5</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -1678,7 +1674,7 @@
       <c r="K33" s="28"/>
     </row>
     <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="60">
+      <c r="C34" s="46">
         <v>4.5999999999999996</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1697,31 +1693,31 @@
     <row r="35" spans="3:12" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="34"/>
       <c r="E35" s="33">
-        <f>COUNTIF(E6:E34,"x")</f>
+        <f t="shared" ref="E35:K35" si="0">COUNTIF(E6:E34,"x")</f>
         <v>5</v>
       </c>
       <c r="F35" s="33">
-        <f>COUNTIF(F6:F34,"x")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G35" s="33">
-        <f>COUNTIF(G6:G34,"x")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H35" s="33">
-        <f>COUNTIF(H6:H34,"x")</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="I35" s="33">
-        <f>COUNTIF(I6:I34,"x")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="J35" s="33">
-        <f>COUNTIF(J6:J34,"x")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K35" s="33">
-        <f>COUNTIF(K6:K34,"x")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1735,27 +1731,27 @@
         <v>5</v>
       </c>
       <c r="F36" s="41">
-        <f t="shared" ref="F36:K36" si="0">IF(F35&gt;0,F35,"")</f>
+        <f t="shared" ref="F36:K36" si="1">IF(F35&gt;0,F35,"")</f>
         <v>3</v>
       </c>
       <c r="G36" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H36" s="41">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="I36" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I36" s="41">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J36" s="41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K36" s="42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L36" s="43">
@@ -1769,32 +1765,32 @@
         <v>0.19230769230769232</v>
       </c>
       <c r="F37" s="37">
-        <f t="shared" ref="F37:K37" si="1">IF(F36="",0,F36/$L$36)</f>
+        <f t="shared" ref="F37:K37" si="2">IF(F36="",0,F36/$L$36)</f>
         <v>0.11538461538461539</v>
       </c>
       <c r="G37" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="H37" s="37">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.42307692307692307</v>
       </c>
       <c r="I37" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J37" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="K37" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37" s="39">
         <f>SUM(E37:K37)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>susan</t>
-  </si>
-  <si>
     <t>MP1. Gestión de Obras Civiles</t>
   </si>
   <si>
@@ -142,6 +136,21 @@
   </si>
   <si>
     <t>Pago Presupuesto de Construcción</t>
+  </si>
+  <si>
+    <t>Preliminar Procesos v2.0 - Susan</t>
+  </si>
+  <si>
+    <t>Primeros Niveles</t>
+  </si>
+  <si>
+    <t>Gestion de Abastecimientos v1.0</t>
+  </si>
+  <si>
+    <t>Archivo Último Actualizado</t>
+  </si>
+  <si>
+    <t>Preliminar Procesos v2.0 - Jose</t>
   </si>
 </sst>
 </file>
@@ -591,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -723,46 +732,58 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1072,12 +1093,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L37"/>
+  <dimension ref="C3:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1108,11 @@
     <col min="4" max="4" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="33" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E3" s="51" t="s">
         <v>19</v>
       </c>
@@ -1101,45 +1123,49 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="54" t="s">
+    <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="63" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="44" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="48"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="50"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="64"/>
+      <c r="M5" s="64"/>
+    </row>
+    <row r="6" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="55"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1151,8 +1177,11 @@
       <c r="K6" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="31">
         <v>1.1000000000000001</v>
       </c>
@@ -1170,8 +1199,11 @@
       <c r="K7" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M7" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="31">
         <v>1.2</v>
       </c>
@@ -1189,8 +1221,11 @@
       <c r="K8" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="30">
         <v>1.3</v>
       </c>
@@ -1208,8 +1243,11 @@
       <c r="K9" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="25"/>
       <c r="D10" s="4"/>
       <c r="E10" s="17"/>
@@ -1222,11 +1260,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="50"/>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="55"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1240,8 +1278,11 @@
       <c r="K11" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="32">
         <v>2.1</v>
       </c>
@@ -1261,8 +1302,11 @@
       <c r="K12" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="29">
         <v>2.2000000000000002</v>
       </c>
@@ -1282,8 +1326,11 @@
       <c r="K13" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="29">
         <v>2.2999999999999998</v>
       </c>
@@ -1295,18 +1342,19 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="H14" s="13"/>
       <c r="I14" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M14" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="31">
         <v>2.4</v>
       </c>
@@ -1318,18 +1366,19 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="H15" s="13"/>
       <c r="I15" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="31">
         <v>2.5</v>
       </c>
@@ -1339,16 +1388,17 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>35</v>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M16" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="30">
         <v>2.6</v>
       </c>
@@ -1360,18 +1410,19 @@
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>35</v>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="25"/>
       <c r="D18" s="4"/>
       <c r="E18" s="17" t="s">
@@ -1386,11 +1437,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="50"/>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="55"/>
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1404,8 +1455,11 @@
       <c r="K19" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="29">
         <v>3.1</v>
       </c>
@@ -1425,8 +1479,11 @@
       <c r="K20" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="29">
         <v>3.2</v>
       </c>
@@ -1446,8 +1503,11 @@
       <c r="K21" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C22" s="23">
         <v>3.3</v>
       </c>
@@ -1466,7 +1526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C23" s="23">
         <v>3.4</v>
       </c>
@@ -1485,7 +1545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="23">
         <v>3.5</v>
       </c>
@@ -1504,7 +1564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" s="27">
         <v>3.6</v>
       </c>
@@ -1521,7 +1581,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="24">
         <v>3.7</v>
       </c>
@@ -1540,7 +1600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="26"/>
       <c r="D27" s="7"/>
       <c r="E27" s="19" t="s">
@@ -1555,11 +1615,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="50"/>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="55"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
         <v>28</v>
@@ -1571,8 +1631,11 @@
       <c r="K28" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C29" s="29">
         <v>4.0999999999999996</v>
       </c>
@@ -1592,8 +1655,11 @@
       <c r="K29" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C30" s="29">
         <v>4.2</v>
       </c>
@@ -1613,8 +1679,11 @@
       <c r="K30" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C31" s="29">
         <v>4.3</v>
       </c>
@@ -1634,8 +1703,11 @@
       <c r="K31" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C32" s="29">
         <v>4.4000000000000004</v>
       </c>
@@ -1655,8 +1727,11 @@
       <c r="K32" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C33" s="45">
         <v>4.5</v>
       </c>
@@ -1672,13 +1747,16 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="28"/>
-    </row>
-    <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="46">
         <v>4.5999999999999996</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
@@ -1689,8 +1767,11 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="3:12" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="34"/>
       <c r="E35" s="33">
         <f t="shared" ref="E35:K35" si="0">COUNTIF(E6:E34,"x")</f>
@@ -1706,11 +1787,11 @@
       </c>
       <c r="H35" s="33">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I35" s="33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J35" s="33">
         <f t="shared" si="0"/>
@@ -1721,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:13" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="34"/>
       <c r="D36" s="35" t="s">
         <v>33</v>
@@ -1740,11 +1821,11 @@
       </c>
       <c r="H36" s="41">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I36" s="41">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J36" s="41">
         <f t="shared" si="1"/>
@@ -1759,7 +1840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="36">
         <f>IF(E36="",0,E36/$L$36)</f>
         <v>0.19230769230769232</v>
@@ -1774,11 +1855,11 @@
       </c>
       <c r="H37" s="37">
         <f t="shared" si="2"/>
-        <v>0.42307692307692307</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="I37" s="37">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="J37" s="37">
         <f t="shared" si="2"/>
@@ -1790,11 +1871,12 @@
       </c>
       <c r="L37" s="39">
         <f>SUM(E37:K37)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C11:D11"/>
@@ -1824,7 +1906,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -744,6 +744,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,12 +765,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,12 +784,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,9 +1096,9 @@
   <dimension ref="C3:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,37 +1113,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1154,18 +1154,18 @@
       <c r="F5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="64"/>
-      <c r="M5" s="64"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1261,20 +1261,20 @@
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="K11" s="12" t="s">
         <v>26</v>
       </c>
@@ -1295,10 +1295,10 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K12" s="14" t="s">
         <v>26</v>
       </c>
@@ -1319,10 +1319,10 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K13" s="14" t="s">
         <v>26</v>
       </c>
@@ -1343,10 +1343,10 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K14" s="14" t="s">
         <v>26</v>
       </c>
@@ -1367,10 +1367,10 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="14" t="s">
         <v>26</v>
       </c>
@@ -1389,10 +1389,10 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="K16" s="28"/>
       <c r="M16" s="47" t="s">
         <v>40</v>
@@ -1411,10 +1411,10 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="9"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="K17" s="16" t="s">
         <v>26</v>
       </c>
@@ -1438,10 +1438,10 @@
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1616,10 +1616,10 @@
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
         <v>28</v>
@@ -1787,15 +1787,15 @@
       </c>
       <c r="H35" s="33">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I35" s="33">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J35" s="33">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K35" s="33">
         <f t="shared" si="0"/>
@@ -1821,15 +1821,15 @@
       </c>
       <c r="H36" s="41">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I36" s="41">
+        <v>6</v>
+      </c>
+      <c r="I36" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="J36" s="41">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K36" s="42" t="str">
         <f t="shared" si="1"/>
@@ -1855,15 +1855,15 @@
       </c>
       <c r="H37" s="37">
         <f t="shared" si="2"/>
-        <v>0.26923076923076922</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I37" s="37">
         <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
+        <v>0</v>
       </c>
       <c r="J37" s="37">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0.42307692307692307</v>
       </c>
       <c r="K37" s="38">
         <f t="shared" si="2"/>
@@ -1876,11 +1876,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -1888,6 +1883,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -744,47 +744,59 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,12 +1105,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M37"/>
+  <dimension ref="C3:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,64 +1120,65 @@
     <col min="4" max="4" width="47.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="3.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E3" s="55" t="s">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="58" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="56"/>
+      <c r="G4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="61" t="s">
+      <c r="I4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="N4" s="63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E5" s="44" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="52"/>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="53" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="64"/>
+      <c r="N5" s="64"/>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1177,11 +1190,11 @@
       <c r="K6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="31">
         <v>1.1000000000000001</v>
       </c>
@@ -1199,11 +1212,12 @@
       <c r="K7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="47"/>
+      <c r="N7" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="31">
         <v>1.2</v>
       </c>
@@ -1221,11 +1235,12 @@
       <c r="K8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="30">
         <v>1.3</v>
       </c>
@@ -1243,11 +1258,12 @@
       <c r="K9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="25"/>
       <c r="D10" s="4"/>
       <c r="E10" s="17"/>
@@ -1260,11 +1276,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="53" t="s">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1278,11 +1294,11 @@
       <c r="K11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="32">
         <v>2.1</v>
       </c>
@@ -1302,11 +1318,12 @@
       <c r="K12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="50" t="s">
+      <c r="M12" s="50"/>
+      <c r="N12" s="67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="29">
         <v>2.2000000000000002</v>
       </c>
@@ -1326,11 +1343,12 @@
       <c r="K13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="29">
         <v>2.2999999999999998</v>
       </c>
@@ -1350,11 +1368,12 @@
       <c r="K14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="48"/>
+      <c r="N14" s="67" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="31">
         <v>2.4</v>
       </c>
@@ -1374,11 +1393,12 @@
       <c r="K15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="47"/>
+      <c r="N15" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="31">
         <v>2.5</v>
       </c>
@@ -1394,11 +1414,12 @@
         <v>28</v>
       </c>
       <c r="K16" s="28"/>
-      <c r="M16" s="47" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="30">
         <v>2.6</v>
       </c>
@@ -1418,11 +1439,12 @@
       <c r="K17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="47" t="s">
+      <c r="M17" s="47"/>
+      <c r="N17" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="25"/>
       <c r="D18" s="4"/>
       <c r="E18" s="17" t="s">
@@ -1437,11 +1459,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="53" t="s">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1455,11 +1477,11 @@
       <c r="K19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="29">
         <v>3.1</v>
       </c>
@@ -1479,11 +1501,12 @@
       <c r="K20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="48" t="s">
+      <c r="M20" s="48"/>
+      <c r="N20" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="29">
         <v>3.2</v>
       </c>
@@ -1503,11 +1526,12 @@
       <c r="K21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="48"/>
+      <c r="N21" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="23">
         <v>3.3</v>
       </c>
@@ -1526,7 +1550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="23">
         <v>3.4</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="23">
         <v>3.5</v>
       </c>
@@ -1564,7 +1588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="27">
         <v>3.6</v>
       </c>
@@ -1581,7 +1605,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="24">
         <v>3.7</v>
       </c>
@@ -1600,7 +1624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="26"/>
       <c r="D27" s="7"/>
       <c r="E27" s="19" t="s">
@@ -1615,11 +1639,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="53" t="s">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
         <v>28</v>
@@ -1631,11 +1655,11 @@
       <c r="K28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="29">
         <v>4.0999999999999996</v>
       </c>
@@ -1655,11 +1679,12 @@
       <c r="K29" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="48"/>
+      <c r="N29" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" s="29">
         <v>4.2</v>
       </c>
@@ -1679,11 +1704,12 @@
       <c r="K30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="48" t="s">
+      <c r="M30" s="48"/>
+      <c r="N30" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="29">
         <v>4.3</v>
       </c>
@@ -1703,11 +1729,12 @@
       <c r="K31" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="48" t="s">
+      <c r="M31" s="48"/>
+      <c r="N31" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="29">
         <v>4.4000000000000004</v>
       </c>
@@ -1727,11 +1754,12 @@
       <c r="K32" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="48" t="s">
+      <c r="M32" s="48"/>
+      <c r="N32" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="45">
         <v>4.5</v>
       </c>
@@ -1747,11 +1775,12 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
       <c r="K33" s="28"/>
-      <c r="M33" s="47" t="s">
+      <c r="M33" s="47"/>
+      <c r="N33" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="46">
         <v>4.5999999999999996</v>
       </c>
@@ -1767,11 +1796,12 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="16"/>
-      <c r="M34" s="49" t="s">
+      <c r="M34" s="49"/>
+      <c r="N34" s="68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:13" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="34"/>
       <c r="E35" s="33">
         <f t="shared" ref="E35:K35" si="0">COUNTIF(E6:E34,"x")</f>
@@ -1802,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:13" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:14" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="34"/>
       <c r="D36" s="35" t="s">
         <v>33</v>
@@ -1839,8 +1869,9 @@
         <f>SUM(E36:K36)</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="65"/>
+    </row>
+    <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="36">
         <f>IF(E36="",0,E36/$L$36)</f>
         <v>0.19230769230769232</v>
@@ -1873,9 +1904,15 @@
         <f>SUM(E37:K37)</f>
         <v>1</v>
       </c>
+      <c r="M37" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -1883,11 +1920,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Preliminar Procesos v2.0 - Jose</t>
+  </si>
+  <si>
+    <t>susan</t>
+  </si>
+  <si>
+    <t>doc</t>
   </si>
 </sst>
 </file>
@@ -744,6 +750,30 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,12 +783,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,24 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1107,10 +1113,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,37 +1132,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1167,18 +1173,18 @@
       <c r="F5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="64"/>
-      <c r="N5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="56"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1213,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="M7" s="47"/>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1236,7 +1242,7 @@
         <v>26</v>
       </c>
       <c r="M8" s="47"/>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1259,7 +1265,7 @@
         <v>26</v>
       </c>
       <c r="M9" s="47"/>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1277,10 +1283,10 @@
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>26</v>
       </c>
       <c r="M12" s="50"/>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1344,7 +1350,7 @@
         <v>26</v>
       </c>
       <c r="M13" s="48"/>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1369,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="M14" s="48"/>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1394,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="M15" s="47"/>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1415,7 +1421,7 @@
       </c>
       <c r="K16" s="28"/>
       <c r="M16" s="47"/>
-      <c r="N16" s="67" t="s">
+      <c r="N16" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1440,7 +1446,7 @@
         <v>26</v>
       </c>
       <c r="M17" s="47"/>
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1460,10 +1466,10 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>26</v>
       </c>
       <c r="M20" s="48"/>
-      <c r="N20" s="67" t="s">
+      <c r="N20" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1527,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="48"/>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1640,10 +1646,10 @@
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
         <v>28</v>
@@ -1674,13 +1680,15 @@
       <c r="H29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J29" s="8"/>
       <c r="K29" s="14" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="48"/>
-      <c r="N29" s="67" t="s">
+      <c r="N29" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1699,13 +1707,15 @@
       <c r="H30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="J30" s="8"/>
       <c r="K30" s="14" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="48"/>
-      <c r="N30" s="67" t="s">
+      <c r="N30" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1724,13 +1734,15 @@
         <v>28</v>
       </c>
       <c r="H31" s="13"/>
-      <c r="I31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J31" s="8"/>
       <c r="K31" s="14" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="48"/>
-      <c r="N31" s="67" t="s">
+      <c r="N31" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1755,7 +1767,7 @@
         <v>26</v>
       </c>
       <c r="M32" s="48"/>
-      <c r="N32" s="67" t="s">
+      <c r="N32" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1772,11 +1784,13 @@
       <c r="H33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="22"/>
+      <c r="I33" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="J33" s="22"/>
       <c r="K33" s="28"/>
       <c r="M33" s="47"/>
-      <c r="N33" s="67" t="s">
+      <c r="N33" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1797,7 +1811,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="16"/>
       <c r="M34" s="49"/>
-      <c r="N34" s="68" t="s">
+      <c r="N34" s="54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1869,7 +1883,7 @@
         <f>SUM(E36:K36)</f>
         <v>26</v>
       </c>
-      <c r="M36" s="65"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="36">
@@ -1904,15 +1918,10 @@
         <f>SUM(E37:K37)</f>
         <v>1</v>
       </c>
-      <c r="M37" s="66"/>
+      <c r="M37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -1920,6 +1929,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -762,46 +762,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1116,7 +1116,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,37 +1132,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="67" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1173,18 +1173,18 @@
       <c r="F5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="68"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="58"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1283,10 +1283,10 @@
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="58"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1466,10 +1466,10 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1646,10 +1646,10 @@
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
         <v>28</v>
@@ -1922,6 +1922,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -1929,11 +1934,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Preliminar Procesos v2.0 - Jose</t>
-  </si>
-  <si>
-    <t>susan</t>
-  </si>
-  <si>
-    <t>doc</t>
   </si>
 </sst>
 </file>
@@ -285,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -601,12 +595,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -762,6 +767,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -771,12 +788,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,11 +809,17 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1113,10 +1130,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,37 +1149,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1173,18 +1190,18 @@
       <c r="F5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="68"/>
-      <c r="N5" s="68"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="56"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1283,10 +1300,10 @@
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1466,10 +1483,10 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1646,10 +1663,10 @@
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="10"/>
       <c r="F28" s="18" t="s">
         <v>28</v>
@@ -1677,11 +1694,9 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>46</v>
+      <c r="H29" s="69"/>
+      <c r="I29" s="71" t="s">
+        <v>28</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="14" t="s">
@@ -1704,11 +1719,9 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>45</v>
+      <c r="H30" s="69"/>
+      <c r="I30" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="14" t="s">
@@ -1730,12 +1743,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="8" t="s">
-        <v>46</v>
+      <c r="G31" s="13"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="71" t="s">
+        <v>28</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="14" t="s">
@@ -1758,10 +1769,10 @@
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="8"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="71" t="s">
+        <v>28</v>
+      </c>
       <c r="J32" s="8"/>
       <c r="K32" s="14" t="s">
         <v>26</v>
@@ -1781,11 +1792,9 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>45</v>
+      <c r="H33" s="70"/>
+      <c r="I33" s="72" t="s">
+        <v>28</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="28"/>
@@ -1827,15 +1836,15 @@
       </c>
       <c r="G35" s="33">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I35" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" s="33">
         <f t="shared" si="0"/>
@@ -1859,17 +1868,17 @@
         <f t="shared" ref="F36:K36" si="1">IF(F35&gt;0,F35,"")</f>
         <v>3</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="41" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="H36" s="41">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I36" s="41" t="str">
+        <v>2</v>
+      </c>
+      <c r="I36" s="41">
         <f t="shared" si="1"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="J36" s="41">
         <f t="shared" si="1"/>
@@ -1896,15 +1905,15 @@
       </c>
       <c r="G37" s="37">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="37">
         <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I37" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="J37" s="37">
         <f t="shared" si="2"/>
@@ -1922,11 +1931,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -1934,6 +1938,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Procesos" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -51,9 +49,6 @@
     <t>Reclutamiento de Postulantes</t>
   </si>
   <si>
-    <t>Selección de Postulantes</t>
-  </si>
-  <si>
     <t>Contratación de Personal</t>
   </si>
   <si>
@@ -111,9 +106,6 @@
     <t>Con información</t>
   </si>
   <si>
-    <t>Despido/Renuncia de Personal</t>
-  </si>
-  <si>
     <t>Evaluación y Entrega de Fondos</t>
   </si>
   <si>
@@ -132,9 +124,6 @@
     <t>MP4. Gestión de Control de Pagos</t>
   </si>
   <si>
-    <t>que falta hacer:</t>
-  </si>
-  <si>
     <t>Pago Presupuesto de Construcción</t>
   </si>
   <si>
@@ -151,6 +140,18 @@
   </si>
   <si>
     <t>Preliminar Procesos v2.0 - Jose</t>
+  </si>
+  <si>
+    <t>Solicitud de Personal</t>
+  </si>
+  <si>
+    <t>Evaluación de Postulantes</t>
+  </si>
+  <si>
+    <t>Despido de Personal</t>
+  </si>
+  <si>
+    <t>Capacitación de Personal</t>
   </si>
 </sst>
 </file>
@@ -279,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -475,30 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -604,6 +581,74 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -611,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -710,32 +755,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -767,59 +809,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1128,12 +1185,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N37"/>
+  <dimension ref="C3:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,73 +1205,71 @@
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="59" t="s">
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="62" t="s">
+      <c r="J4" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="67" t="s">
+      <c r="K4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>43</v>
+      <c r="N4" s="60" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="66"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="68"/>
-      <c r="K5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="K5" s="66"/>
+      <c r="N5" s="61"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="58"/>
+      <c r="C6" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
@@ -1229,15 +1284,13 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="53" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
@@ -1252,15 +1305,13 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="J8" s="8"/>
       <c r="K8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="53" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="M8" s="46"/>
+      <c r="N8" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1275,15 +1326,13 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="53" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1296,29 +1345,29 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="58"/>
+      <c r="C11" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="59"/>
       <c r="E11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
@@ -1329,21 +1378,21 @@
         <v>3</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="50"/>
-      <c r="N12" s="53" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
@@ -1354,21 +1403,21 @@
         <v>4</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="53" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="M13" s="47"/>
+      <c r="N13" s="52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
@@ -1379,21 +1428,21 @@
         <v>5</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="53" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="M14" s="47"/>
+      <c r="N14" s="52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
@@ -1404,21 +1453,21 @@
         <v>6</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="53" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="M15" s="46"/>
+      <c r="N15" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
@@ -1434,12 +1483,12 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="28"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="53" t="s">
-        <v>40</v>
+      <c r="M16" s="46"/>
+      <c r="N16" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1447,31 +1496,31 @@
         <v>2.6</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="53" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="M17" s="46"/>
+      <c r="N17" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="25"/>
       <c r="D18" s="4"/>
       <c r="E18" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -1479,29 +1528,31 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="58"/>
+      <c r="C19" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="59"/>
       <c r="E19" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="H19" s="18"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
@@ -1512,21 +1563,21 @@
         <v>8</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="53" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="M20" s="47"/>
+      <c r="N20" s="52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
@@ -1537,21 +1588,21 @@
         <v>9</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="48"/>
-      <c r="N21" s="53" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="M21" s="47"/>
+      <c r="N21" s="52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
@@ -1559,18 +1610,18 @@
         <v>3.3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
@@ -1578,18 +1629,18 @@
         <v>3.4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
@@ -1597,340 +1648,379 @@
         <v>3.5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="13"/>
+        <v>43</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="27">
         <v>3.6</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="21"/>
+      <c r="D25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
       <c r="K25" s="28"/>
     </row>
-    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="24">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="27">
         <v>3.7</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="26"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="48"/>
-      <c r="N29" s="53" t="s">
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="27">
+        <v>3.8</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="26"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="53" t="s">
-        <v>44</v>
+      <c r="C30" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" s="29">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="71" t="s">
-        <v>28</v>
+      <c r="H31" s="54"/>
+      <c r="I31" s="56" t="s">
+        <v>27</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" s="48"/>
-      <c r="N31" s="53" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="M31" s="47"/>
+      <c r="N31" s="52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" s="29">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="71" t="s">
-        <v>28</v>
+      <c r="H32" s="54"/>
+      <c r="I32" s="57" t="s">
+        <v>27</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="53" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="M32" s="47"/>
+      <c r="N32" s="52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="45">
+      <c r="C33" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="47"/>
+      <c r="N33" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="47"/>
+      <c r="N34" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="44">
         <v>4.5</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="28"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="46">
+      <c r="D35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="28"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="45">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="16"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="34"/>
-      <c r="E35" s="33">
-        <f t="shared" ref="E35:K35" si="0">COUNTIF(E6:E34,"x")</f>
-        <v>5</v>
-      </c>
-      <c r="F35" s="33">
+      <c r="D36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="16"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="34"/>
+      <c r="E37" s="33">
+        <f t="shared" ref="E37:K37" si="0">COUNTIF(E6:E36,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="33">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G35" s="33">
+        <v>10</v>
+      </c>
+      <c r="G37" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="33">
+        <v>1</v>
+      </c>
+      <c r="H37" s="33">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I37" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J35" s="33">
+      <c r="J37" s="33">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="K35" s="33">
+        <v>7</v>
+      </c>
+      <c r="K37" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="34"/>
-      <c r="D36" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="40">
-        <f>IF(E35&gt;0,E35,"")</f>
-        <v>5</v>
-      </c>
-      <c r="F36" s="41">
-        <f t="shared" ref="F36:K36" si="1">IF(F35&gt;0,F35,"")</f>
-        <v>3</v>
-      </c>
-      <c r="G36" s="41" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="34"/>
+      <c r="D38" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="40" t="str">
+        <f>IF(E37&gt;0,E37,"")</f>
+        <v/>
+      </c>
+      <c r="F38" s="41">
+        <f t="shared" ref="F38:K38" si="1">IF(F37&gt;0,F37,"")</f>
+        <v>10</v>
+      </c>
+      <c r="G38" s="41">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H36" s="41">
+        <v>1</v>
+      </c>
+      <c r="H38" s="41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I38" s="41">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J38" s="41">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="K36" s="42" t="str">
+        <v>7</v>
+      </c>
+      <c r="K38" s="42">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L36" s="43">
-        <f>SUM(E36:K36)</f>
-        <v>26</v>
-      </c>
-      <c r="M36" s="51"/>
-    </row>
-    <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="36">
-        <f>IF(E36="",0,E36/$L$36)</f>
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="F37" s="37">
-        <f t="shared" ref="F37:K37" si="2">IF(F36="",0,F36/$L$36)</f>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="G37" s="37">
+        <v>4</v>
+      </c>
+      <c r="L38" s="43">
+        <f>SUM(E38:K38)</f>
+        <v>29</v>
+      </c>
+      <c r="M38" s="50"/>
+    </row>
+    <row r="39" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="36">
+        <f>IF(E38="",0,E38/$L$38)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="37">
+        <f t="shared" ref="F39:K39" si="2">IF(F38="",0,F38/$L$38)</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="G39" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="37">
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="H39" s="37">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="I37" s="37">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="I39" s="37">
         <f t="shared" si="2"/>
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="J37" s="37">
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="J39" s="37">
         <f t="shared" si="2"/>
-        <v>0.42307692307692307</v>
-      </c>
-      <c r="K37" s="38">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="K39" s="38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="39">
-        <f>SUM(E37:K37)</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="L39" s="39">
+        <f>SUM(E39:K39)</f>
         <v>1</v>
       </c>
-      <c r="M37" s="52"/>
+      <c r="M39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -1938,45 +2028,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Reclutamiento de Postulantes</t>
   </si>
   <si>
-    <t>Contratación de Personal</t>
-  </si>
-  <si>
     <t>Seguimiento de Personal</t>
   </si>
   <si>
@@ -148,17 +145,32 @@
     <t>Evaluación de Postulantes</t>
   </si>
   <si>
-    <t>Despido de Personal</t>
-  </si>
-  <si>
     <t>Capacitación de Personal</t>
+  </si>
+  <si>
+    <t>Contratación e Inducción de Personal</t>
+  </si>
+  <si>
+    <t>Despido o Retiro de Personal</t>
+  </si>
+  <si>
+    <t>MP5. Gestión de Control de Pagos</t>
+  </si>
+  <si>
+    <t>Codificación de las Cuentas</t>
+  </si>
+  <si>
+    <t>Auditoría Interna</t>
+  </si>
+  <si>
+    <t>Elaboración de Informe Financiero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,11 +182,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -194,12 +201,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -224,7 +225,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -651,90 +658,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,37 +736,37 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,10 +787,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,74 +799,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1185,12 +1241,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N39"/>
+  <dimension ref="C3:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,821 +1262,881 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-    </row>
-    <row r="4" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="73" t="s">
+      <c r="J4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="67" t="s">
+      <c r="K4" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>40</v>
+      <c r="N4" s="48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="66"/>
-      <c r="N5" s="61"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="51"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12" t="s">
-        <v>27</v>
+      <c r="C6" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="31">
+      <c r="C7" s="21">
         <v>1.1000000000000001</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="52" t="s">
-        <v>37</v>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="31">
+      <c r="C8" s="21">
         <v>1.2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="52" t="s">
-        <v>37</v>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="30">
+      <c r="C9" s="20">
         <v>1.3</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="52" t="s">
-        <v>37</v>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="25"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17" t="s">
-        <v>25</v>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>25</v>
+      <c r="C11" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="32">
+      <c r="C12" s="22">
         <v>2.1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="49"/>
-      <c r="N12" s="52" t="s">
-        <v>39</v>
+      <c r="E12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="42" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="29">
+      <c r="C13" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="52" t="s">
-        <v>39</v>
+      <c r="E13" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="37"/>
+      <c r="N13" s="42" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="29">
+      <c r="C14" s="19">
         <v>2.2999999999999998</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="52" t="s">
-        <v>39</v>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="37"/>
+      <c r="N14" s="42" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="31">
+      <c r="C15" s="21">
         <v>2.4</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="52" t="s">
-        <v>37</v>
+      <c r="E15" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="31">
+      <c r="C16" s="21">
         <v>2.5</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="52" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="36"/>
+      <c r="N16" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="20">
+        <v>2.6</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="16"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="76"/>
+      <c r="G19" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="30">
-        <v>2.6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="25"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="29">
+      <c r="C20" s="19">
         <v>3.1</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="37"/>
+      <c r="N20" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="37"/>
+      <c r="N21" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="34">
+        <v>3.7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="34">
+        <v>3.8</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+    </row>
+    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="20">
+        <v>3.9</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="85"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="14" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="37"/>
+      <c r="N31" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="37"/>
+      <c r="N32" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="37"/>
+      <c r="N33" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="37"/>
+      <c r="N34" s="42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="38"/>
+      <c r="N36" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="85"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="29">
-        <v>3.2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="23">
-        <v>3.3</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="23">
-        <v>3.4</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="23">
-        <v>3.5</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="27">
-        <v>3.6</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="28"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="27">
-        <v>3.7</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="28"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="27">
-        <v>3.8</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="28"/>
-    </row>
-    <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="24">
-        <v>3.9</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="26"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="29">
-        <v>4.3</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="47"/>
-      <c r="N33" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="47"/>
-      <c r="N34" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="44">
-        <v>4.5</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="28"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="45">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="16"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" s="33" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="34"/>
-      <c r="E37" s="33">
-        <f t="shared" ref="E37:K37" si="0">COUNTIF(E6:E36,"x")</f>
+      <c r="F39" s="87"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="37"/>
+      <c r="N39" s="42"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="37"/>
+      <c r="N40" s="42"/>
+    </row>
+    <row r="41" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="D41" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="87"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="37"/>
+      <c r="N41" s="42"/>
+    </row>
+    <row r="42" spans="3:14" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="24"/>
+      <c r="E42" s="23">
+        <f>COUNTIF(E6:E41,"x")</f>
         <v>0</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F42" s="23">
+        <f>COUNTIF(F6:F41,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="G42" s="23">
+        <f>COUNTIF(G6:G41,"x")</f>
+        <v>7</v>
+      </c>
+      <c r="H42" s="23">
+        <f>COUNTIF(H6:H41,"x")</f>
+        <v>2</v>
+      </c>
+      <c r="I42" s="23">
+        <f>COUNTIF(I6:I41,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="23">
+        <f>COUNTIF(J6:J41,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="23">
+        <f>COUNTIF(K6:K41,"x")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="24"/>
+      <c r="D43" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="30" t="str">
+        <f>IF(E42&gt;0,E42,"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="31">
+        <f t="shared" ref="F43:K43" si="0">IF(F42&gt;0,F42,"")</f>
+        <v>3</v>
+      </c>
+      <c r="G43" s="31">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G37" s="33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H37" s="33">
+        <v>7</v>
+      </c>
+      <c r="H43" s="31">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I43" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J37" s="33">
+        <v/>
+      </c>
+      <c r="J43" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="K37" s="33">
+        <v/>
+      </c>
+      <c r="K43" s="32">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="34"/>
-      <c r="D38" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="40" t="str">
-        <f>IF(E37&gt;0,E37,"")</f>
-        <v/>
-      </c>
-      <c r="F38" s="41">
-        <f t="shared" ref="F38:K38" si="1">IF(F37&gt;0,F37,"")</f>
-        <v>10</v>
-      </c>
-      <c r="G38" s="41">
+        <v>22</v>
+      </c>
+      <c r="L43" s="33">
+        <f>SUM(E43:K43)</f>
+        <v>34</v>
+      </c>
+      <c r="M43" s="40"/>
+    </row>
+    <row r="44" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="26">
+        <f>IF(E43="",0,E43/$L$43)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="27">
+        <f t="shared" ref="F44:K44" si="1">IF(F43="",0,F43/$L$43)</f>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="G44" s="27">
         <f t="shared" si="1"/>
+        <v>0.20588235294117646</v>
+      </c>
+      <c r="H44" s="27">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="I44" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="28">
+        <f t="shared" si="1"/>
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L44" s="29">
+        <f>SUM(E44:K44)</f>
         <v>1</v>
       </c>
-      <c r="H38" s="41">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I38" s="41">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J38" s="41">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K38" s="42">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L38" s="43">
-        <f>SUM(E38:K38)</f>
-        <v>29</v>
-      </c>
-      <c r="M38" s="50"/>
-    </row>
-    <row r="39" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="36">
-        <f>IF(E38="",0,E38/$L$38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="37">
-        <f t="shared" ref="F39:K39" si="2">IF(F38="",0,F38/$L$38)</f>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="G39" s="37">
-        <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="H39" s="37">
-        <f t="shared" si="2"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="I39" s="37">
-        <f t="shared" si="2"/>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="J39" s="37">
-        <f t="shared" si="2"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="K39" s="38">
-        <f t="shared" si="2"/>
-        <v>0.13793103448275862</v>
-      </c>
-      <c r="L39" s="39">
-        <f>SUM(E39:K39)</f>
-        <v>1</v>
-      </c>
-      <c r="M39" s="51"/>
+      <c r="M44" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
+  <mergeCells count="13">
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -2028,6 +2144,12 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Procesos.xlsx
+++ b/Procesos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>Planificación y Priorización de Construcciones</t>
   </si>
@@ -811,6 +811,117 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,117 +933,6 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1243,10 +1243,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,37 +1262,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="85" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1303,25 +1303,25 @@
       <c r="F5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="51"/>
-      <c r="N5" s="49"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="88"/>
+      <c r="N5" s="86"/>
     </row>
     <row r="6" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -1353,16 +1353,16 @@
       <c r="C8" s="21">
         <v>1.2</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="36"/>
@@ -1405,19 +1405,19 @@
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78" t="s">
+      <c r="D11" s="76"/>
+      <c r="E11" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -1451,18 +1451,18 @@
       <c r="C13" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72" t="s">
+      <c r="E13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57" t="s">
         <v>26</v>
       </c>
       <c r="M13" s="37"/>
@@ -1497,18 +1497,18 @@
       <c r="C15" s="21">
         <v>2.4</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72" t="s">
+      <c r="E15" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57" t="s">
         <v>26</v>
       </c>
       <c r="M15" s="36"/>
@@ -1541,18 +1541,18 @@
       <c r="C17" s="20">
         <v>2.6</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="66" t="s">
+      <c r="E17" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="36"/>
@@ -1576,21 +1576,21 @@
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="78" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61" t="s">
         <v>24</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -1626,20 +1626,20 @@
       <c r="C21" s="19">
         <v>3.2</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72" t="s">
+      <c r="E21" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="57" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="37"/>
@@ -1656,10 +1656,10 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="10" t="s">
@@ -1670,18 +1670,18 @@
       <c r="C23" s="19">
         <v>3.4</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72" t="s">
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1694,10 +1694,10 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="10" t="s">
@@ -1708,18 +1708,18 @@
       <c r="C25" s="17">
         <v>3.6</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="80"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="34">
@@ -1730,10 +1730,10 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="18"/>
@@ -1742,18 +1742,18 @@
       <c r="C27" s="34">
         <v>3.8</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
     </row>
     <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="20">
@@ -1764,10 +1764,10 @@
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="12" t="s">
@@ -1775,30 +1775,28 @@
       </c>
     </row>
     <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="85"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="75"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78" t="s">
+      <c r="D30" s="76"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -1832,18 +1830,18 @@
       <c r="C32" s="19">
         <v>4.2</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72" t="s">
+      <c r="E32" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="37"/>
@@ -1878,18 +1876,18 @@
       <c r="C34" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="72" t="s">
+      <c r="E34" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="37"/>
@@ -1922,18 +1920,16 @@
       <c r="C36" s="35">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="66" t="s">
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="51" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="38"/>
@@ -1942,28 +1938,28 @@
       </c>
     </row>
     <row r="37" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="85"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="78" t="s">
+      <c r="D38" s="76"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="61" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1971,13 +1967,13 @@
       <c r="C39" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="69" t="s">
         <v>47</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="87"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="9"/>
       <c r="H39" s="44"/>
       <c r="I39" s="14"/>
@@ -1992,18 +1988,18 @@
       <c r="C40" s="19">
         <v>5.2</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="D40" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="72" t="s">
+      <c r="E40" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57" t="s">
         <v>26</v>
       </c>
       <c r="M40" s="37"/>
@@ -2013,13 +2009,13 @@
       <c r="C41" s="19">
         <v>5.3</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="69" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="87"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="9"/>
       <c r="H41" s="44"/>
       <c r="I41" s="14"/>
@@ -2033,31 +2029,31 @@
     <row r="42" spans="3:14" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="24"/>
       <c r="E42" s="23">
-        <f>COUNTIF(E6:E41,"x")</f>
+        <f t="shared" ref="E42:K42" si="0">COUNTIF(E6:E41,"x")</f>
         <v>0</v>
       </c>
       <c r="F42" s="23">
-        <f>COUNTIF(F6:F41,"x")</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G42" s="23">
-        <f>COUNTIF(G6:G41,"x")</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H42" s="23">
-        <f>COUNTIF(H6:H41,"x")</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="I42" s="23">
-        <f>COUNTIF(I6:I41,"x")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J42" s="23">
-        <f>COUNTIF(J6:J41,"x")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K42" s="23">
-        <f>COUNTIF(K6:K41,"x")</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -2070,33 +2066,33 @@
         <f>IF(E42&gt;0,E42,"")</f>
         <v/>
       </c>
-      <c r="F43" s="31">
-        <f t="shared" ref="F43:K43" si="0">IF(F42&gt;0,F42,"")</f>
-        <v>3</v>
-      </c>
-      <c r="G43" s="31">
-        <f t="shared" si="0"/>
-        <v>7</v>
+      <c r="F43" s="31" t="str">
+        <f t="shared" ref="F43:K43" si="1">IF(F42&gt;0,F42,"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="H43" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="I43" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J43" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K43" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L43" s="33">
         <f>SUM(E43:K43)</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M43" s="40"/>
     </row>
@@ -2106,28 +2102,28 @@
         <v>0</v>
       </c>
       <c r="F44" s="27">
-        <f t="shared" ref="F44:K44" si="1">IF(F43="",0,F43/$L$43)</f>
-        <v>8.8235294117647065E-2</v>
+        <f t="shared" ref="F44:K44" si="2">IF(F43="",0,F43/$L$43)</f>
+        <v>0</v>
       </c>
       <c r="G44" s="27">
-        <f t="shared" si="1"/>
-        <v>0.20588235294117646</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H44" s="27">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.3125</v>
       </c>
       <c r="I44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K44" s="28">
-        <f t="shared" si="1"/>
-        <v>0.6470588235294118</v>
+        <f t="shared" si="2"/>
+        <v>0.6875</v>
       </c>
       <c r="L44" s="29">
         <f>SUM(E44:K44)</f>
@@ -2137,6 +2133,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E4:F4"/>
@@ -2144,12 +2146,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
